--- a/tests/mig_data_test.xlsx
+++ b/tests/mig_data_test.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glspi/Documents/Github/sel-acl/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F284C367-8E8D-DD4E-8890-2E84193F4B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9546C1E2-1744-904A-A241-B1649905C832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="16080" windowWidth="45120" windowHeight="19360" xr2:uid="{40A0DC13-C62C-444A-AECC-7F482F48584E}"/>
+    <workbookView xWindow="3140" yWindow="22860" windowWidth="45120" windowHeight="19360" xr2:uid="{40A0DC13-C62C-444A-AECC-7F482F48584E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
   <si>
     <t>VLAN</t>
   </si>
@@ -278,6 +278,87 @@
   </si>
   <si>
     <t>tenant4</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>EPG</t>
+  </si>
+  <si>
+    <t>Bridge Domain</t>
+  </si>
+  <si>
+    <t>vlan1_ap</t>
+  </si>
+  <si>
+    <t>vlan2_ap</t>
+  </si>
+  <si>
+    <t>vlan3_ap</t>
+  </si>
+  <si>
+    <t>vlan4_ap</t>
+  </si>
+  <si>
+    <t>vlan5_ap</t>
+  </si>
+  <si>
+    <t>vlan6_ap</t>
+  </si>
+  <si>
+    <t>vlan7_ap</t>
+  </si>
+  <si>
+    <t>vlan8_ap</t>
+  </si>
+  <si>
+    <t>vlan3_EPG</t>
+  </si>
+  <si>
+    <t>vlan2_EPG</t>
+  </si>
+  <si>
+    <t>vlan1_EPG</t>
+  </si>
+  <si>
+    <t>vlan4_EPG</t>
+  </si>
+  <si>
+    <t>vlan5_EPG</t>
+  </si>
+  <si>
+    <t>vlan6_EPG</t>
+  </si>
+  <si>
+    <t>vlan7_EPG</t>
+  </si>
+  <si>
+    <t>vlan8_EPG</t>
+  </si>
+  <si>
+    <t>vlan1_BD</t>
+  </si>
+  <si>
+    <t>vlan2_BD</t>
+  </si>
+  <si>
+    <t>vlan3_BD</t>
+  </si>
+  <si>
+    <t>vlan4_BD</t>
+  </si>
+  <si>
+    <t>vlan5_BD</t>
+  </si>
+  <si>
+    <t>vlan6_BD</t>
+  </si>
+  <si>
+    <t>vlan7_BD</t>
+  </si>
+  <si>
+    <t>vlan8_BD</t>
   </si>
 </sst>
 </file>
@@ -816,11 +897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30126664-D38C-42A1-BDC2-EAC73699B94E}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -833,14 +914,15 @@
     <col min="6" max="7" width="9.1640625" style="3"/>
     <col min="8" max="8" width="13.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="53.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="100.33203125" style="3" customWidth="1"/>
+    <col min="10" max="12" width="11.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="100.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,19 +954,28 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -908,13 +999,22 @@
         <v>65</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -938,13 +1038,22 @@
         <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -968,13 +1077,22 @@
         <v>66</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -998,13 +1116,22 @@
         <v>66</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1028,13 +1155,22 @@
         <v>66</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1058,13 +1194,22 @@
         <v>67</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1087,12 +1232,21 @@
       <c r="J8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1115,12 +1269,21 @@
       <c r="J9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1135,8 +1298,11 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
@@ -1159,8 +1325,11 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>32</v>
@@ -1183,8 +1352,11 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>33</v>
@@ -1207,8 +1379,11 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>34</v>
@@ -1231,8 +1406,11 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>35</v>
@@ -1257,8 +1435,11 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>36</v>
@@ -1283,8 +1464,11 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>37</v>
@@ -1307,8 +1491,11 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>38</v>
@@ -1330,11 +1517,14 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>39</v>
@@ -1357,8 +1547,11 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>40</v>
@@ -1383,37 +1576,40 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-    </row>
-    <row r="22" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="22" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="12" t="s">
         <v>44</v>
@@ -1421,7 +1617,7 @@
       <c r="C27" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{30126664-D38C-42A1-BDC2-EAC73699B94E}"/>
+  <autoFilter ref="A1:Q1" xr:uid="{30126664-D38C-42A1-BDC2-EAC73699B94E}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1438,17 +1634,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7eb9e8ec-0ba8-4626-b1c1-e7887ca2128a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="27994755-fd4e-496a-924e-6a7ce4ab83bd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E170251D2BD314BA693FA98D47A5175" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7276738f928a3a0a2f51836e94c48b50">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7eb9e8ec-0ba8-4626-b1c1-e7887ca2128a" xmlns:ns3="27994755-fd4e-496a-924e-6a7ce4ab83bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="feb2ca024c583f36ef25619a81d58d3d" ns2:_="" ns3:_="">
     <xsd:import namespace="7eb9e8ec-0ba8-4626-b1c1-e7887ca2128a"/>
@@ -1691,6 +1876,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7eb9e8ec-0ba8-4626-b1c1-e7887ca2128a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="27994755-fd4e-496a-924e-6a7ce4ab83bd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5A71882-9E14-45B3-A791-AE0EEE0358BC}">
   <ds:schemaRefs>
@@ -1700,23 +1896,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1F49C85-C31B-48D5-9A00-AD0C17990706}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="27994755-fd4e-496a-924e-6a7ce4ab83bd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7eb9e8ec-0ba8-4626-b1c1-e7887ca2128a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6967D07B-07F2-4CC6-BC21-C710E3775C8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1733,4 +1912,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1F49C85-C31B-48D5-9A00-AD0C17990706}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="27994755-fd4e-496a-924e-6a7ce4ab83bd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7eb9e8ec-0ba8-4626-b1c1-e7887ca2128a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>